--- a/data/income_statement/2digits/total/38_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/38_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2464457.81771</v>
@@ -956,37 +862,42 @@
         <v>3492657.42817</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5537607.791239999</v>
+        <v>5537607.79124</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6428908.022950001</v>
+        <v>6428919.08219</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7161351.19952</v>
+        <v>7182500.391639999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8855537.789139999</v>
+        <v>8913205.675930001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9394695.84839</v>
+        <v>9469871.25124</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10869829.21983</v>
+        <v>10960441.50935</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>16398418.59546</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>18543714.76096</v>
+        <v>18629600.9264</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19157640.1037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19567250.00564</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>24455862.543</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2366297.03435</v>
@@ -998,34 +909,39 @@
         <v>5388999.668700001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6239160.06985</v>
+        <v>6239171.129090002</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6947986.169020001</v>
+        <v>6969032.81417</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8578335.689379999</v>
+        <v>8622111.080300001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8842877.548079999</v>
+        <v>8912668.374949999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10409882.70896</v>
+        <v>10498991.6445</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>15665486.27441</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>17402866.61408</v>
+        <v>17488678.37425</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>17244799.04958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17471877.84035</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>21915471.658</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>62560.93308</v>
@@ -1043,28 +959,33 @@
         <v>124057.19502</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>160552.38487</v>
+        <v>174412.53099</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>196182.01433</v>
+        <v>199264.45733</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>276367.7845299999</v>
+        <v>276379.34853</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>496498.20778</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>880377.2678799999</v>
+        <v>880389.89116</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1602251.59157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1784416.80839</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2263306.314</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>35599.85028</v>
@@ -1076,40 +997,45 @@
         <v>38703.83967000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>79325.27232</v>
+        <v>79325.27232000002</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>89307.83548000002</v>
+        <v>89410.38244999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>116649.71489</v>
+        <v>116682.06464</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>355636.28598</v>
+        <v>357938.41896</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>183578.72634</v>
+        <v>185070.51632</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>236434.11327</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>260470.879</v>
+        <v>260532.66099</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>310589.4625499999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>310955.3569</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>277084.571</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6299.560989999998</v>
+        <v>6299.56099</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9874.09397</v>
+        <v>9874.093969999998</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>12328.57871</v>
@@ -1121,31 +1047,36 @@
         <v>31885.85499</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>48610.80033999999</v>
+        <v>48681.68866000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>46382.71098999999</v>
+        <v>46523.82095</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>286040.6187000001</v>
+        <v>286193.87401</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>66553.77834</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>132443.5976</v>
+        <v>132444.6396</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>163143.86002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>163498.34578</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>319531.527</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3741.142449999999</v>
+        <v>3741.14245</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>6966.39777</v>
@@ -1163,25 +1094,30 @@
         <v>25935.17891</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>22758.89738</v>
+        <v>22894.24795</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>265020.5726</v>
+        <v>265082.347</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>39781.81462999999</v>
+        <v>39781.81463</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>97304.33179</v>
+        <v>97305.37379</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>98174.16240999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>98518.21991</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>247001.272</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2402.03587</v>
@@ -1196,16 +1132,16 @@
         <v>1974.55023</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6471.835129999999</v>
+        <v>6471.83513</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>12097.36013</v>
+        <v>12168.24845</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>15101.00407</v>
+        <v>15106.76346</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>11624.0812</v>
+        <v>11715.56211</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>15152.00575</v>
@@ -1214,13 +1150,18 @@
         <v>24417.34962</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>21242.71609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21253.14435</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>28181.049</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>156.38267</v>
@@ -1229,10 +1170,10 @@
         <v>1849.31819</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>880.4061599999998</v>
+        <v>880.40616</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>950.91615</v>
+        <v>950.9161499999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>1784.47264</v>
@@ -1241,7 +1182,7 @@
         <v>10578.2613</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8522.80954</v>
+        <v>8522.809539999998</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>9395.964900000001</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>43726.98151999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>44349.206</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2458158.25672</v>
@@ -1271,34 +1217,39 @@
         <v>5525279.212530001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6407096.67695</v>
+        <v>6407107.73619</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7129465.344529999</v>
+        <v>7150614.536649999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8806926.988799999</v>
+        <v>8864523.987270001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9348313.137400001</v>
+        <v>9423347.430290002</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10583788.60113</v>
+        <v>10674247.63534</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>16331864.81712</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>18411271.16336</v>
+        <v>18497156.2868</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18994496.24368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19403751.65986</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>24136331.016</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2124813.72682</v>
@@ -1310,43 +1261,48 @@
         <v>4908330.25828</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5710843.0455</v>
+        <v>5710887.09957</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6421645.887159999</v>
+        <v>6455260.32693</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7987984.222489998</v>
+        <v>8045628.97485</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8557503.662799999</v>
+        <v>8640469.49391</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9647390.254029999</v>
+        <v>9732513.268539999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>14803459.30738</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>16315403.57493</v>
+        <v>16397358.65892</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>16772481.81971</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17174638.86043</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>21265311.368</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>283914.19204</v>
+        <v>283914.1920399999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>527446.5617300001</v>
+        <v>527446.56173</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>866795.3419099998</v>
+        <v>866795.3419100001</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>1097155.65238</v>
@@ -1355,28 +1311,33 @@
         <v>1780249.87933</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1969224.03445</v>
+        <v>1980103.09301</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2232178.916</v>
+        <v>2240622.37532</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2346307.395349999</v>
+        <v>2409806.74074</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3246102.46473</v>
+        <v>3246102.464730001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4810026.70042</v>
+        <v>4817204.71916</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5451246.115329999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5511094.55951</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7706252.559</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>707229.80424</v>
@@ -1385,37 +1346,42 @@
         <v>1170607.9281</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2212905.95812</v>
+        <v>2212905.958120001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2464161.9614</v>
+        <v>2464161.961399999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2331064.02813</v>
+        <v>2331782.75593</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3333683.48939</v>
+        <v>3333696.43579</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2843594.43087</v>
+        <v>2846106.98025</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3247203.1054</v>
+        <v>3261412.58772</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>6496293.156810001</v>
+        <v>6496293.15681</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>7090055.47968</v>
+        <v>7161588.16351</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6855980.102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7163927.129819999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>8969781.460000001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1120342.82343</v>
@@ -1427,34 +1393,39 @@
         <v>1826966.72642</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2145474.16661</v>
+        <v>2145518.22068</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2306445.02906</v>
+        <v>2339340.74103</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2653218.64331</v>
+        <v>2699846.75573</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3452929.45258</v>
+        <v>3524462.41666</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4011894.36069</v>
+        <v>4019304.42215</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5007702.42357</v>
+        <v>5007702.423570001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4322485.6178</v>
+        <v>4325602.849359999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4399202.244540001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4433513.813259999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4308467.334</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>13326.90711</v>
@@ -1472,67 +1443,77 @@
         <v>3886.95064</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>31858.05534</v>
+        <v>31982.69032</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>28800.86335</v>
+        <v>29277.72168</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>41985.39259</v>
+        <v>41989.51793</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>53361.26227000001</v>
+        <v>53361.26227</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>92835.77703</v>
+        <v>92962.92689000002</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>66053.35784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>66103.35784</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>280810.015</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>333344.5299</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>401045.3572399999</v>
+        <v>401045.35724</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>616948.95425</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>696253.6314500001</v>
+        <v>696220.6366199999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>707819.45737</v>
+        <v>695354.2097199999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>818942.76631</v>
+        <v>818895.0124199999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>790809.4746000001</v>
+        <v>782877.9363799999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>936398.3471</v>
+        <v>941734.3668</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1528405.50974</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2095867.58843</v>
+        <v>2099797.62788</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2222014.42397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2229112.79943</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2871019.648</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>208488.63702</v>
@@ -1547,40 +1528,45 @@
         <v>446419.3464099999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>507312.05155</v>
+        <v>509425.05147</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>581014.38168</v>
+        <v>586648.51845</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>632628.41062</v>
+        <v>643383.19468</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>715384.9328799999</v>
+        <v>718045.07551</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>895767.73359</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1156572.07432</v>
+        <v>1159024.22143</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1370351.82331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1389896.58257</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1583544.217</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>441.7441900000001</v>
+        <v>441.74419</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>254.37357</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>574.33486</v>
+        <v>574.3348599999999</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>2929.50588</v>
@@ -1589,7 +1575,7 @@
         <v>1524.06382</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>792.01851</v>
+        <v>819.18254</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>482.17459</v>
@@ -1601,25 +1587,30 @@
         <v>2808.38519</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3569.98861</v>
+        <v>3569.988609999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4668.213130000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4675.92048</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4601.212</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>35890.90125</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>47562.63811</v>
+        <v>47562.63810999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>94037.64949000001</v>
+        <v>94037.64949</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>103377.30325</v>
@@ -1628,28 +1619,33 @@
         <v>106977.40049</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>112673.13129</v>
+        <v>114107.53939</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>109519.09845</v>
+        <v>110779.54669</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>123186.16648</v>
+        <v>124184.61943</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>179579.19755</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>281026.84679</v>
+        <v>281121.83157</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>337458.06949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>340965.3596</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>352496.05</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>172155.99158</v>
@@ -1664,31 +1660,36 @@
         <v>340112.53728</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>398810.58724</v>
+        <v>400923.58716</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>467549.23188</v>
+        <v>471721.79652</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>522627.1375799999</v>
+        <v>532121.4734</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>591833.8091599999</v>
+        <v>593495.49884</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>713380.15085</v>
+        <v>713380.1508499999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>871975.23892</v>
+        <v>874332.4012500001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1028225.54069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1044255.30249</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1226446.955</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>124855.89288</v>
@@ -1700,34 +1701,39 @@
         <v>234752.82264</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>249834.28504</v>
+        <v>249801.29021</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>200507.40582</v>
+        <v>185929.15825</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>237928.38463</v>
+        <v>232246.49397</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>158181.06398</v>
+        <v>139494.7417</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>221013.41422</v>
+        <v>223689.29129</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>632637.7761499999</v>
+        <v>632637.77615</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>939295.51411</v>
+        <v>940773.4064499999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>851662.6006599999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>839216.21686</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1287475.431</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>51361.47003</v>
@@ -1736,37 +1742,42 @@
         <v>60393.71474</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>73372.29926</v>
+        <v>73372.29925999999</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>101615.12035</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>133748.21854</v>
+        <v>134691.43147</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>167410.73386</v>
+        <v>170594.14472</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>306674.7059800001</v>
+        <v>318318.49507</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>290541.10947</v>
+        <v>290793.89384</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>414286.54554</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>934269.1590499999</v>
+        <v>934476.14175</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>865100.6956999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>866631.2937200001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1918034.915</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>4248.05915</v>
@@ -1778,7 +1789,7 @@
         <v>15430.98179</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>9631.137290000001</v>
+        <v>9631.137289999999</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>8837.406989999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>31150.97293</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>59482.199</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1832,7 +1848,7 @@
         <v>5694.07888</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>40640.73736000001</v>
+        <v>40640.73736</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>64644.67118</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>10936.00585</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>9011.255999999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12542.9354</v>
@@ -1859,31 +1880,36 @@
         <v>17487.62838</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>19469.21904</v>
+        <v>19596.52204</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>26264.48311</v>
+        <v>26988.46565</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>51120.9417</v>
+        <v>55542.22655000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>69477.0238</v>
+        <v>70055.60775</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>87861.77838999999</v>
+        <v>87861.77839000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>93062.71599</v>
+        <v>93286.12918999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>79545.63428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>80023.56515000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>107545.276</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.91435</v>
@@ -1901,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>750.07857</v>
+        <v>750.0785699999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>300.0674300000001</v>
+        <v>300.06979</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>593.35414</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>724.36829</v>
+        <v>724.3682899999999</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>542.1960300000001</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>414.93239</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>3486.839</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4354.588809999999</v>
+        <v>4354.58881</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>10816.4585</v>
@@ -1940,13 +1971,13 @@
         <v>10451.76506</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>15353.85254</v>
+        <v>15356.66176</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>16482.64342</v>
+        <v>16482.82042</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7263.98252</v>
+        <v>7342.57406</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>2056.64189</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>29951.14563</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>17096.266</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>425.46716</v>
@@ -1970,7 +2006,7 @@
         <v>365.96241</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>445.5080399999999</v>
+        <v>445.50804</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>1157.62144</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>631.18471</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2075.259</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>17900.23658</v>
@@ -2015,16 +2056,16 @@
         <v>27394.58817</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>56563.59395999999</v>
+        <v>56563.59396</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>58164.68173</v>
+        <v>59797.63615000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>147023.76396</v>
+        <v>152814.05951</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>137368.29575</v>
+        <v>137393.79635</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>198016.62233</v>
@@ -2033,13 +2074,18 @@
         <v>663685.63137</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>621099.2914199999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>622385.1778700001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1514226.911</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>416.87949</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>48.005</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2087,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>361.0075400000001</v>
+        <v>361.00754</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>95.71994000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>118.486</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>11888.26858</v>
@@ -2132,34 +2188,39 @@
         <v>24939.02933</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>30841.56121</v>
+        <v>31657.47114</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>48327.25291999999</v>
+        <v>49150.91759999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>57440.05352999998</v>
+        <v>58872.08286</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>37376.24978</v>
+        <v>36946.35806000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>56451.76048</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>77634.51005</v>
+        <v>77618.07954999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>90858.92906000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>90625.70975999998</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>204944.418</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>36515.34489</v>
+        <v>36515.34488999999</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>27986.21275</v>
@@ -2168,40 +2229,45 @@
         <v>72658.60107999998</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>48621.44977999999</v>
+        <v>48621.44978</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>111259.17934</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>165851.24166</v>
+        <v>166664.05925</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>214083.208</v>
+        <v>218266.38499</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>203641.65696</v>
+        <v>203650.67032</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>269885.92947</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>820917.93906</v>
+        <v>820917.9390599999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>797026.1538000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>798500.61508</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1729579.351</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>246.90778</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>93.53749000000001</v>
+        <v>93.53749000000002</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>169.09129</v>
@@ -2213,34 +2279,39 @@
         <v>976.33082</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>370.37867</v>
+        <v>370.3786700000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>112.33124</v>
+        <v>114.25552</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>80.23992</v>
+        <v>80.23992000000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>203.52125</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>679.85771</v>
+        <v>679.8577100000001</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>561.4774100000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1657.598</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>10722.74054</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9336.118719999999</v>
+        <v>9336.11872</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>17929.83297</v>
@@ -2252,10 +2323,10 @@
         <v>9390.52123</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>73003.66650000002</v>
+        <v>73047.81647000002</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>19723.37526</v>
+        <v>19743.98122</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>14081.35905</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>52045.59722</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>28508.915</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>41.03507</v>
@@ -2291,7 +2367,7 @@
         <v>113.83118</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>609.80231</v>
+        <v>609.8023099999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>91.53888999999999</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>11264.4517</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>689.831</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>17511.38182</v>
@@ -2330,13 +2411,13 @@
         <v>90384.10571</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>63731.13617</v>
+        <v>64498.99996</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>164665.39086</v>
+        <v>168824.90818</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>173392.02669</v>
+        <v>173400.83548</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>230976.28744</v>
@@ -2345,13 +2426,18 @@
         <v>749210.2233300001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>662240.99696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>663706.86488</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1626852.679</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>403.0044599999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>393.14352</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11.006</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>256.29225</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1135.392</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>7590.27522</v>
@@ -2444,16 +2540,16 @@
         <v>5220.61046</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9929.087959999999</v>
+        <v>9929.087960000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>27636.0868</v>
+        <v>27636.89063</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>29470.83946</v>
+        <v>29471.96889</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>15936.67592</v>
+        <v>15936.88049</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>31435.04555</v>
@@ -2462,55 +2558,65 @@
         <v>28433.31408</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>70264.19473999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>70272.78810000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>70723.92999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>76271.19762000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>64051.96139000002</v>
+        <v>64051.96139</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>70964.69892</v>
+        <v>70964.69891999998</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>105418.88635</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>123278.07989</v>
+        <v>123554.03639</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>162652.12633</v>
+        <v>163468.75471</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>225686.50161</v>
+        <v>226768.66959</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>288213.87203</v>
+        <v>288786.47782</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>365884.41009</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>570164.8089300001</v>
+        <v>570177.9854</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>578844.02122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>580797.9082300001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>568253.058</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>62975.95858999999</v>
+        <v>62975.95859</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>54208.87891000001</v>
@@ -2519,34 +2625,39 @@
         <v>61152.41672000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>94860.96554999998</v>
+        <v>94860.96554999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>96963.58365</v>
+        <v>97236.47691</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>143907.66003</v>
+        <v>144724.28841</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>198710.98925</v>
+        <v>199793.15723</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>249749.79268</v>
+        <v>250317.6517</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>325650.93962</v>
+        <v>325650.9396200001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>483285.43522</v>
+        <v>483298.61169</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>507094.44688</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>508844.00745</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>525187.375</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>13295.23903</v>
@@ -2555,13 +2666,13 @@
         <v>9843.082480000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>9812.282200000001</v>
+        <v>9812.2822</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>10557.9208</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>26314.49624</v>
+        <v>26317.55948</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>18744.4663</v>
@@ -2570,25 +2681,30 @@
         <v>26975.51236</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>38464.07935000001</v>
+        <v>38468.82612000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>40233.47047</v>
+        <v>40233.47047000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>86879.37371</v>
+        <v>86879.37371000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>71749.57434000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>71953.90078</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>43065.683</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>63430.82039999999</v>
+        <v>63430.8204</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>99715.03047999999</v>
@@ -2597,34 +2713,39 @@
         <v>164501.8219</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>197409.06926</v>
+        <v>197376.07443</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>99718.36512999999</v>
+        <v>85807.37398999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>76835.75049999999</v>
+        <v>72707.82472999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>25086.06034999999</v>
+        <v>12778.18219</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>19698.9947</v>
+        <v>22046.03699</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>411153.98213</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>482481.9251699999</v>
+        <v>484153.62374</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>340893.12134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>326548.98727</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>907677.937</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>16094.63498</v>
@@ -2633,37 +2754,42 @@
         <v>41948.72781</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>45130.60641</v>
+        <v>45130.60640999999</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>44443.40484</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>47604.80495</v>
+        <v>74424.33418000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>74675.47746000001</v>
+        <v>102027.5048</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>82725.97869</v>
+        <v>85285.47891000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>105037.73236</v>
+        <v>105421.3049</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>124139.08086</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>106518.24022</v>
+        <v>106536.77011</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>183151.56382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>183663.86875</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>209464.443</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1073.348</v>
@@ -2678,31 +2804,36 @@
         <v>4390.837570000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1009.32714</v>
+        <v>27828.85637</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2714.54965</v>
+        <v>29534.07888</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6673.86067</v>
+        <v>6673.860670000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>8693.669400000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>995.00345</v>
+        <v>995.0034499999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>4631.472479999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4203.22556</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4203.519780000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7305.994</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>15021.28698</v>
@@ -2720,28 +2851,33 @@
         <v>46595.47781</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>71960.92781000001</v>
+        <v>72493.42591999998</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>76052.11802000001</v>
+        <v>78611.61824000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>96344.06296000001</v>
+        <v>96727.6355</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>123144.07741</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>101886.76774</v>
+        <v>101905.29763</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>178948.33826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>179460.34897</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>202158.449</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>22715.74285</v>
@@ -2756,31 +2892,36 @@
         <v>39601.64298</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>77936.12101</v>
+        <v>77945.81221999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>100008.07911</v>
+        <v>100926.17109</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>68893.60969</v>
+        <v>69484.36119</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>140299.07193</v>
+        <v>140812.83182</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>102711.2504</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>227502.59265</v>
+        <v>227522.26233</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>216787.97898</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>217753.62317</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>229533.921</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>279.05296</v>
@@ -2801,7 +2942,7 @@
         <v>3982.59039</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8375.320009999999</v>
+        <v>8429.935019999999</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>5506.3727</v>
@@ -2810,16 +2951,21 @@
         <v>3879.50797</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>7138.526980000001</v>
+        <v>7138.52698</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>17610.96248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>17660.4184</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>21905.867</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2897.97854</v>
@@ -2834,13 +2980,13 @@
         <v>1978.6666</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4645.022209999999</v>
+        <v>4654.71341</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>12189.70227</v>
+        <v>12199.39347</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3365.51295</v>
+        <v>3365.628819999999</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>11024.58224</v>
@@ -2852,13 +2998,18 @@
         <v>15504.16473</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>20073.71207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>20081.47972</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>60301.819</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>19538.71135</v>
@@ -2873,31 +3024,36 @@
         <v>33311.09157</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>66606.82207000001</v>
+        <v>66606.82208000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>83835.78645</v>
+        <v>84744.18723000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>57152.77673</v>
+        <v>57688.79734999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>123768.11699</v>
+        <v>124281.87688</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>93625.21232999998</v>
+        <v>93625.21233000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>204859.90094</v>
+        <v>204879.57062</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>179103.30443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>180011.72505</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>147326.235</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>56809.71253</v>
@@ -2906,37 +3062,42 @@
         <v>108099.40546</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>45810.47651</v>
+        <v>45810.47651000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>202250.83112</v>
+        <v>202217.83629</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>69387.04907000001</v>
+        <v>82285.89594999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>51503.14884999999</v>
+        <v>73809.15844</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>38918.42935</v>
+        <v>28579.29991000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-15562.34487</v>
+        <v>-13345.48993</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>432581.81259</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>361497.57274</v>
+        <v>363168.1315200001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>307256.7061799999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>292459.23285</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>887608.459</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>21163.83947</v>
@@ -2951,67 +3112,75 @@
         <v>53939.07148000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>54164.30935</v>
+        <v>54166.35294</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>54881.66931</v>
+        <v>56600.55634</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>48167.64898000001</v>
+        <v>48508.87232000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>55258.84233</v>
+        <v>55493.66922</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>112102.913</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>149884.07451</v>
+        <v>150449.02353</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>151513.25273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>152732.04857</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>236374.129</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>35645.87306000001</v>
+        <v>35645.87305999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>81345.56159</v>
+        <v>81345.56158999998</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1115.163450000003</v>
+        <v>-1115.163450000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>148311.75964</v>
+        <v>148278.76481</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>15222.73972</v>
+        <v>28119.54301</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-3378.520459999997</v>
+        <v>17208.60209999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-9249.219630000003</v>
+        <v>-19929.57240999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-70821.1872</v>
+        <v>-68839.15914999999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>320478.89959</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>211613.49823</v>
+        <v>212719.10799</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>155743.45345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>139727.18428</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>651234.33</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>477</v>
@@ -3041,31 +3213,34 @@
         <v>721</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1272</v>
+        <v>1288</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1438</v>
+        <v>1451</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1608</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1717</v>
+        <v>1790</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1965</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>